--- a/biology/Microbiologie/Marinomonas/Marinomonas.xlsx
+++ b/biology/Microbiologie/Marinomonas/Marinomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marinomonas est un genre de la famille des Oceanospirillaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (11 mars 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (11 mars 2024) :
 Marinomonas agarivorans Yu et al. 2020
 Marinomonas alcarazii Lucas-Elío et al. 2011
 Marinomonas algicida Kristyanto et al. 2017
@@ -609,12 +625,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Marinomonas van Landschoot &amp; De Ley 1984[1].
-L'espèce type est : Marinomonas communis (Baumann et al. 1972) van Landschoot &amp; De Ley 1984[1].
-Étymologie
-L'étymologie du nom de genre de Marinomonas vient de l'habitat de ces bactéries et est la suivante : Ma.ri.no.mo.nas. L. masc. adj. marinus, de ou appartenant à la mer, marin; L. fem. n. monas, une unité, monade; N.L. fem. n. Marinomonas, une monade de mer[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Marinomonas van Landschoot &amp; De Ley 1984.
+L'espèce type est : Marinomonas communis (Baumann et al. 1972) van Landschoot &amp; De Ley 1984.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marinomonas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marinomonas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre de Marinomonas vient de l'habitat de ces bactéries et est la suivante : Ma.ri.no.mo.nas. L. masc. adj. marinus, de ou appartenant à la mer, marin; L. fem. n. monas, une unité, monade; N.L. fem. n. Marinomonas, une monade de mer.
 </t>
         </is>
       </c>
